--- a/zadatak_3/output/model_metrics.xlsx
+++ b/zadatak_3/output/model_metrics.xlsx
@@ -472,20 +472,20 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9994</v>
+        <v>0.9981</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9994</v>
+        <v>0.9981</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9994</v>
+        <v>0.9981</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9994</v>
+        <v>0.9981</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[[1037, 0, 4], [0, 3833, 0], [0, 0, 2347]]</t>
+          <t>[[1035, 0, 6], [0, 3832, 1], [5, 2, 2340]]</t>
         </is>
       </c>
     </row>
@@ -496,20 +496,20 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9997</v>
+        <v>0.9993</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9997</v>
+        <v>0.9993</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9997</v>
+        <v>0.9993</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9997</v>
+        <v>0.9993</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[[1039, 0, 2], [0, 3833, 0], [0, 0, 2347]]</t>
+          <t>[[1038, 0, 3], [0, 3833, 0], [1, 1, 2345]]</t>
         </is>
       </c>
     </row>
@@ -520,20 +520,20 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9913999999999999</v>
+        <v>0.9921</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9913999999999999</v>
+        <v>0.9921</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9913999999999999</v>
+        <v>0.9921</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9913999999999999</v>
+        <v>0.9921</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[[1021, 0, 20], [0, 3823, 10], [29, 3, 2315]]</t>
+          <t>[[1022, 0, 19], [0, 3820, 13], [22, 3, 2322]]</t>
         </is>
       </c>
     </row>
@@ -544,20 +544,20 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9997</v>
+        <v>0.9996</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9997</v>
+        <v>0.9996</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9997</v>
+        <v>0.9996</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9997</v>
+        <v>0.9996</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[[1039, 0, 2], [0, 3833, 0], [0, 0, 2347]]</t>
+          <t>[[1039, 0, 2], [0, 3833, 0], [1, 0, 2346]]</t>
         </is>
       </c>
     </row>
@@ -568,20 +568,20 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9985000000000001</v>
+        <v>0.9982</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9985000000000001</v>
+        <v>0.9982</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9985000000000001</v>
+        <v>0.9982</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9985000000000001</v>
+        <v>0.9982</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[[1040, 0, 1], [0, 3833, 0], [3, 7, 2337]]</t>
+          <t>[[1037, 0, 4], [0, 3833, 0], [1, 8, 2338]]</t>
         </is>
       </c>
     </row>
